--- a/TestData/Shopkeeper.xlsx
+++ b/TestData/Shopkeeper.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard_OP" sheetId="1" r:id="rId1"/>
     <sheet name="Dashboard_IP" sheetId="2" r:id="rId2"/>
+    <sheet name="Dashboard_PaymentPending" sheetId="3" r:id="rId3"/>
+    <sheet name="Dashboard_DeliveryPending" sheetId="4" r:id="rId4"/>
+    <sheet name="Proforma" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Customer_Name</t>
   </si>
@@ -81,10 +84,43 @@
     <t>FreeDiscount</t>
   </si>
   <si>
-    <t>RakAwc</t>
-  </si>
-  <si>
-    <t>nex</t>
+    <t>Erin</t>
+  </si>
+  <si>
+    <t>Arunkumar</t>
+  </si>
+  <si>
+    <t>tamil</t>
+  </si>
+  <si>
+    <t>Quantity1</t>
+  </si>
+  <si>
+    <t>Quantity2</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Ej pradeep</t>
+  </si>
+  <si>
+    <t>erin</t>
+  </si>
+  <si>
+    <t>Clorox</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>paracetomol</t>
   </si>
 </sst>
 </file>
@@ -714,12 +750,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1281,72 +1323,72 @@
     <col min="5" max="5" width="14.6363636363636" customWidth="1"/>
     <col min="6" max="6" width="10.8181818181818" customWidth="1"/>
     <col min="8" max="8" width="13.4545454545455" customWidth="1"/>
-    <col min="9" max="9" width="2" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2" style="7" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="9.54545454545454"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:11">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="4" customFormat="1" spans="1:11">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="4">
         <v>69696969</v>
       </c>
     </row>
@@ -1361,8 +1403,8 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -1378,64 +1420,225 @@
     <col min="10" max="11" width="12.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:11">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" spans="2:11">
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7339300833</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4">
+        <v>69696969</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="17.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="17.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="11.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="16.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="18.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="10.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="14.5454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="2">
-        <v>69696969</v>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>500</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Shopkeeper.xlsx
+++ b/TestData/Shopkeeper.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6800" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="19200" windowHeight="6080" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard_OP" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="Dashboard_PaymentPending" sheetId="3" r:id="rId3"/>
     <sheet name="Dashboard_DeliveryPending" sheetId="4" r:id="rId4"/>
     <sheet name="Proforma" sheetId="5" r:id="rId5"/>
+    <sheet name="_History" sheetId="6" r:id="rId6"/>
+    <sheet name="Shopdetails" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>Customer_Name</t>
   </si>
@@ -121,6 +123,54 @@
   </si>
   <si>
     <t>paracetomol</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>StartMonth</t>
+  </si>
+  <si>
+    <t>StartYear</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>EndMonth</t>
+  </si>
+  <si>
+    <t>EndYear</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>ReturnReason</t>
+  </si>
+  <si>
+    <t>ReturnQuantity</t>
+  </si>
+  <si>
+    <t>Edit_Material</t>
+  </si>
+  <si>
+    <t>Delete_Material</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>SelectShop</t>
+  </si>
+  <si>
+    <t>TestShop</t>
   </si>
 </sst>
 </file>
@@ -303,6 +353,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -370,12 +426,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +676,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -650,16 +700,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -668,30 +718,30 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,29 +800,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1311,7 +1379,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
@@ -1323,7 +1391,7 @@
     <col min="5" max="5" width="14.6363636363636" customWidth="1"/>
     <col min="6" max="6" width="10.8181818181818" customWidth="1"/>
     <col min="8" max="8" width="13.4545454545455" customWidth="1"/>
-    <col min="9" max="9" width="2" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2" style="13" customWidth="1"/>
     <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="9.54545454545454"/>
   </cols>
@@ -1353,7 +1421,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
+      <c r="I1" s="11"/>
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1384,7 +1452,7 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1445,7 +1513,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
+      <c r="I1" s="11"/>
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1472,7 +1540,7 @@
       <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
@@ -1492,7 +1560,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1567,8 +1635,8 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1578,14 +1646,14 @@
     <col min="3" max="3" width="14.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="9" customFormat="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1594,13 +1662,13 @@
       <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1639,6 +1707,198 @@
       </c>
       <c r="D3">
         <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="16.9090909090909" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11" style="4" customWidth="1"/>
+    <col min="3" max="4" width="8.72727272727273" style="4"/>
+    <col min="5" max="5" width="11.2727272727273" style="4" customWidth="1"/>
+    <col min="6" max="7" width="8.72727272727273" style="4"/>
+    <col min="8" max="8" width="10.6363636363636" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.72727272727273" style="4"/>
+    <col min="10" max="10" width="1.63636363636364" style="5" customWidth="1"/>
+    <col min="11" max="11" width="8.72727272727273" style="4"/>
+    <col min="12" max="13" width="15.6363636363636" style="4" customWidth="1"/>
+    <col min="14" max="14" width="1.63636363636364" style="5" customWidth="1"/>
+    <col min="15" max="15" width="13.4545454545455" customWidth="1"/>
+    <col min="16" max="16" width="8.72727272727273" style="4"/>
+    <col min="17" max="17" width="12.6363636363636" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="8.72727272727273" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" spans="1:18">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="7"/>
+      <c r="K1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="7"/>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="4">
+        <v>14440</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="4">
+        <v>14440</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="12.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="16.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="14.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="16.7272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>14442</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Shopkeeper.xlsx
+++ b/TestData/Shopkeeper.xlsx
@@ -1852,7 +1852,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="6"/>
